--- a/uploads/sample1_pg_trb.xlsx
+++ b/uploads/sample1_pg_trb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KS Academy Salem Website\2026 students list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC69525-B244-4E31-8F03-F7FCF4664C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16100705-E5AF-4E73-A56B-4EC6A5C4490D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{B379DBBF-E439-4DE2-95DD-D479659A5DE7}"/>
+    <workbookView xWindow="-45120" yWindow="-2175" windowWidth="29040" windowHeight="15840" xr2:uid="{B379DBBF-E439-4DE2-95DD-D479659A5DE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Generated_User_Credentials_2025" sheetId="1" r:id="rId1"/>
@@ -40,269 +40,269 @@
     <t>26lavan482</t>
   </si>
   <si>
-    <t>KSlaUG@739</t>
-  </si>
-  <si>
     <t>TDevi</t>
   </si>
   <si>
     <t>26tdevi615</t>
   </si>
   <si>
-    <t>KSdeUG#284</t>
-  </si>
-  <si>
     <t>JASMINE</t>
   </si>
   <si>
     <t>26jasmi903</t>
   </si>
   <si>
-    <t>KSjaUG*516</t>
-  </si>
-  <si>
     <t>Divya</t>
   </si>
   <si>
     <t>26divya472</t>
   </si>
   <si>
-    <t>KSdiUG@638</t>
-  </si>
-  <si>
     <t>Ramya Rithin</t>
   </si>
   <si>
     <t>26ramya851</t>
   </si>
   <si>
-    <t>KSraUG#942</t>
-  </si>
-  <si>
     <t>Kanmani</t>
   </si>
   <si>
     <t>26kanma764</t>
   </si>
   <si>
-    <t>KSkaUG*319</t>
-  </si>
-  <si>
     <t>Sindhu Shantharaj</t>
   </si>
   <si>
     <t>26sindh493</t>
   </si>
   <si>
-    <t>KSsiUG@875</t>
-  </si>
-  <si>
     <t>kalaiselvi N</t>
   </si>
   <si>
     <t>26kalai621</t>
   </si>
   <si>
-    <t>KSkaUG#407</t>
-  </si>
-  <si>
     <t>valarmathiandavar@gmail.com</t>
   </si>
   <si>
     <t>26valar358</t>
   </si>
   <si>
-    <t>KSvaUG*692</t>
-  </si>
-  <si>
-    <t>T.Murugavalli</t>
-  </si>
-  <si>
-    <t>26murug901</t>
-  </si>
-  <si>
-    <t>KSmuUG@513</t>
-  </si>
-  <si>
     <t>Malathi</t>
   </si>
   <si>
     <t>26malat447</t>
   </si>
   <si>
-    <t>KSmaUG#208</t>
-  </si>
-  <si>
     <t>Tamizhvanan</t>
   </si>
   <si>
     <t>26tamiz736</t>
   </si>
   <si>
-    <t>KStaUG*964</t>
-  </si>
-  <si>
     <t>Sharmila</t>
   </si>
   <si>
     <t>26sharm584</t>
   </si>
   <si>
-    <t>KSshUG@731</t>
-  </si>
-  <si>
     <t>Rangeela Kaliyappan</t>
   </si>
   <si>
     <t>26range392</t>
   </si>
   <si>
-    <t>KSraUG#845</t>
-  </si>
-  <si>
     <t>Sathiya Latha</t>
   </si>
   <si>
     <t>26sathi610</t>
   </si>
   <si>
-    <t>KSsaUG*273</t>
-  </si>
-  <si>
     <t>Saritha Dinesh</t>
   </si>
   <si>
     <t>26sarit749</t>
   </si>
   <si>
-    <t>KSsaUG@581</t>
-  </si>
-  <si>
     <t>ANANDHARAJ M</t>
   </si>
   <si>
     <t>26anand432</t>
   </si>
   <si>
-    <t>KSanUG#694</t>
-  </si>
-  <si>
     <t>M.Anusuya</t>
   </si>
   <si>
     <t>26anusu587</t>
   </si>
   <si>
-    <t>KSmaUG*419</t>
-  </si>
-  <si>
     <t>siva ranjani</t>
   </si>
   <si>
     <t>26sivar823</t>
   </si>
   <si>
-    <t>KSsiUG@752</t>
-  </si>
-  <si>
     <t>Nedumaran V</t>
   </si>
   <si>
     <t>26nedum406</t>
   </si>
   <si>
-    <t>KSneUG#318</t>
-  </si>
-  <si>
     <t>DHANANJAYAN R</t>
   </si>
   <si>
     <t>26dhanan945</t>
   </si>
   <si>
-    <t>KSdhUG*602</t>
-  </si>
-  <si>
     <t>Thangaraju</t>
   </si>
   <si>
     <t>26thang271</t>
   </si>
   <si>
-    <t>KSthUG@843</t>
-  </si>
-  <si>
     <t>R Jayanthi</t>
   </si>
   <si>
     <t>26jayan518</t>
   </si>
   <si>
-    <t>KSjaUG#790</t>
-  </si>
-  <si>
     <t>M.B.Jasra Tasneem</t>
   </si>
   <si>
     <t>26jasra634</t>
   </si>
   <si>
-    <t>KSjaUG*452</t>
-  </si>
-  <si>
     <t>Saraswathi Mohan</t>
   </si>
   <si>
     <t>26saras701</t>
   </si>
   <si>
-    <t>KSsaUG@986</t>
-  </si>
-  <si>
     <t>SudhaSivakumar</t>
   </si>
   <si>
     <t>26sudha329</t>
   </si>
   <si>
-    <t>KSsuUG#541</t>
-  </si>
-  <si>
     <t>A.shagaya princy</t>
   </si>
   <si>
     <t>26shaga684</t>
   </si>
   <si>
-    <t>KSshUG*297</t>
-  </si>
-  <si>
     <t>Bhavani chennai</t>
   </si>
   <si>
     <t>26bhava513</t>
   </si>
   <si>
-    <t>KSbhUG@840</t>
-  </si>
-  <si>
     <t>MRS.N.SIVAPRIYA</t>
   </si>
   <si>
     <t>26sivap972</t>
   </si>
   <si>
-    <t>KSsiUG#361</t>
-  </si>
-  <si>
     <t>PG TRB</t>
+  </si>
+  <si>
+    <t>KSlaPG@739</t>
+  </si>
+  <si>
+    <t>KSdePG#284</t>
+  </si>
+  <si>
+    <t>KSjaPG*516</t>
+  </si>
+  <si>
+    <t>KSdiPG@638</t>
+  </si>
+  <si>
+    <t>KSraPG#942</t>
+  </si>
+  <si>
+    <t>KSkaPG*319</t>
+  </si>
+  <si>
+    <t>KSsiPG@875</t>
+  </si>
+  <si>
+    <t>KSkaPG#407</t>
+  </si>
+  <si>
+    <t>KSvaPG*692</t>
+  </si>
+  <si>
+    <t>T.MurPGavalli</t>
+  </si>
+  <si>
+    <t>26murPG901</t>
+  </si>
+  <si>
+    <t>KSmuPG@513</t>
+  </si>
+  <si>
+    <t>KSmaPG#208</t>
+  </si>
+  <si>
+    <t>KStaPG*964</t>
+  </si>
+  <si>
+    <t>KSshPG@731</t>
+  </si>
+  <si>
+    <t>KSraPG#845</t>
+  </si>
+  <si>
+    <t>KSsaPG*273</t>
+  </si>
+  <si>
+    <t>KSsaPG@581</t>
+  </si>
+  <si>
+    <t>KSanPG#694</t>
+  </si>
+  <si>
+    <t>KSmaPG*419</t>
+  </si>
+  <si>
+    <t>KSsiPG@752</t>
+  </si>
+  <si>
+    <t>KSnePG#318</t>
+  </si>
+  <si>
+    <t>KSdhPG*602</t>
+  </si>
+  <si>
+    <t>KSthPG@843</t>
+  </si>
+  <si>
+    <t>KSjaPG#790</t>
+  </si>
+  <si>
+    <t>KSjaPG*452</t>
+  </si>
+  <si>
+    <t>KSsaPG@986</t>
+  </si>
+  <si>
+    <t>KSsuPG#541</t>
+  </si>
+  <si>
+    <t>KSshPG*297</t>
+  </si>
+  <si>
+    <t>KSbhPG@840</t>
+  </si>
+  <si>
+    <t>KSsiPG#361</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,6 +442,14 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -799,7 +807,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -842,8 +850,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -855,8 +864,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -890,6 +900,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1233,7 +1244,7 @@
   <dimension ref="A1:D417"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1264,403 +1275,403 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
+      <c r="C2" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -3988,8 +3999,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A10" r:id="rId1" display="mailto:valarmathiandavar@gmail.com" xr:uid="{F1ABCE4A-3F77-4793-A7F7-957A94BA46DE}"/>
+    <hyperlink ref="C2" r:id="rId2" display="KSlaUG@739" xr:uid="{81086F84-A205-4AA8-A195-0A3C220BEECE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>